--- a/input_data/demo_model.xlsx
+++ b/input_data/demo_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E67E9D-A21D-41F5-BCC2-3508307764D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419E621D-FB4C-4CA1-83B3-CC8D7801C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
   <si>
     <t>node</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>initial_flow</t>
+  </si>
+  <si>
+    <t>node_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>ramp_dummy_variable_cost</t>
   </si>
 </sst>
 </file>
@@ -4955,178 +4961,178 @@
       <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -5143,12 +5149,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -5173,9 +5179,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -5196,15 +5202,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5235,7 +5241,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5250,7 +5256,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5265,7 +5271,7 @@
         <v>0.27899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5280,7 +5286,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5295,7 +5301,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5310,7 +5316,7 @@
         <v>0.23500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5325,7 +5331,7 @@
         <v>0.17500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5340,7 +5346,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5355,7 +5361,7 @@
         <v>0.21400000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5370,85 +5376,85 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5470,14 +5476,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5508,7 +5514,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5525,7 +5531,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5542,7 +5548,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5559,7 +5565,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5576,7 +5582,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5593,7 +5599,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5610,7 +5616,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5627,7 +5633,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5644,7 +5650,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5661,7 +5667,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -5669,7 +5675,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -5677,7 +5683,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -5685,7 +5691,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -5693,7 +5699,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -5701,7 +5707,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -5709,7 +5715,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -5717,7 +5723,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -5725,7 +5731,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -5733,7 +5739,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -5741,7 +5747,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -5749,7 +5755,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -5757,7 +5763,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -5765,7 +5771,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5789,82 +5795,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5883,12 +5889,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5905,7 +5911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5914,7 +5920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5923,7 +5929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5932,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5941,7 +5947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5950,7 +5956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5959,7 +5965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5968,7 +5974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5977,7 +5983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5986,85 +5992,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6084,19 +6090,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6172,13 +6178,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -6194,21 +6200,21 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
     </row>
   </sheetData>
@@ -6224,14 +6230,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="14" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6245,7 +6251,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6260,7 +6266,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6275,7 +6281,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6290,7 +6296,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6305,7 +6311,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6320,7 +6326,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6335,7 +6341,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6350,7 +6356,7 @@
         <v>50.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6365,7 +6371,7 @@
         <v>36.69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6380,7 +6386,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -6411,15 +6417,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6443,7 +6449,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6473,7 +6479,7 @@
         <v>8.5310000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6503,7 +6509,7 @@
         <v>4.2560000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6533,7 +6539,7 @@
         <v>23.930499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6563,7 +6569,7 @@
         <v>18.145</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6593,7 +6599,7 @@
         <v>24.519499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6623,7 +6629,7 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6653,7 +6659,7 @@
         <v>47.908499999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6683,7 +6689,7 @@
         <v>34.855499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6713,7 +6719,7 @@
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -6743,10 +6749,10 @@
         <v>14.1455</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6754,40 +6760,40 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
   </sheetData>
@@ -6798,19 +6804,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB98B755-8BE1-4837-9877-4DDB59C80C3F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -6834,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -6858,16 +6864,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>118</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6885,12 +6907,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -6898,7 +6920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -6906,7 +6928,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -6927,9 +6949,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -6937,7 +6959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6945,7 +6967,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -6953,7 +6975,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -6974,162 +6996,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7148,155 +7170,155 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7316,155 +7338,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7483,14 +7505,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -7504,7 +7526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -7518,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -7535,17 +7557,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7577,7 +7599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7610,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7643,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7676,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7709,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7742,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7775,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -7808,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -7841,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -7874,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -7907,85 +7929,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -8004,20 +8026,20 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8067,7 +8089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8117,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8167,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -8217,7 +8239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -8267,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8299,23 +8321,23 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -8368,7 +8390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -8421,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -8474,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -8527,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -8580,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -8646,9 +8668,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -8659,7 +8681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8670,7 +8692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8681,7 +8703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8692,7 +8714,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -8703,7 +8725,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -8727,9 +8749,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -8782,24 +8804,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -8831,7 +8853,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -8863,7 +8885,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
@@ -8895,7 +8917,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -8927,7 +8949,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -8959,7 +8981,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -8991,7 +9013,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -9023,7 +9045,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -9055,7 +9077,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -9087,7 +9109,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -9119,7 +9141,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
@@ -9165,155 +9187,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -9332,14 +9354,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>

--- a/input_data/demo_model.xlsx
+++ b/input_data/demo_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419E621D-FB4C-4CA1-83B3-CC8D7801C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D5659-7B2B-44ED-8FA5-9477E9380E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
   <si>
     <t>node</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>penalty</t>
-  </si>
-  <si>
-    <t>reserve_product</t>
   </si>
   <si>
     <t>processgroup</t>
@@ -488,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -502,9 +499,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5156,13 +5150,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5215,7 @@
         <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -5494,7 +5488,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5899,7 +5893,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6113,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>31</v>
@@ -6151,7 +6145,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>32</v>
@@ -6194,28 +6188,166 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
     <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>86</v>
+      <c r="A1" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6248,7 +6380,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6436,7 +6568,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>56</v>
@@ -6445,7 +6577,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -6806,7 +6938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB98B755-8BE1-4837-9877-4DDB59C80C3F}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6826,7 +6958,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6834,7 +6966,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6842,7 +6974,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6850,7 +6982,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6858,7 +6990,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6866,7 +6998,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6874,7 +7006,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6882,7 +7014,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6890,7 +7022,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6977,7 +7109,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -6993,7 +7125,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7590,13 +7722,13 @@
         <v>79</v>
       </c>
       <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8062,7 +8194,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -8077,13 +8209,13 @@
         <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>53</v>
@@ -8191,7 +8323,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -8384,7 +8516,7 @@
         <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>45</v>
@@ -8551,7 +8683,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -8604,7 +8736,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -8689,7 +8821,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8700,7 +8832,7 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -8711,7 +8843,7 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8719,10 +8851,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8730,10 +8862,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -8847,10 +8979,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -9047,7 +9179,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -9079,13 +9211,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -9111,7 +9243,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -9143,13 +9275,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -9363,19 +9495,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/demo_model.xlsx
+++ b/input_data/demo_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D5659-7B2B-44ED-8FA5-9477E9380E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730EE93-7D77-4EB4-B0E1-B3E8A24544AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="risk" sheetId="17" r:id="rId20"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId20"/>
+    <sheet name="risk" sheetId="17" r:id="rId21"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>node</t>
   </si>
@@ -4955,178 +4956,178 @@
       <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -5143,12 +5144,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
@@ -5173,9 +5174,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -5196,15 +5197,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5235,7 +5236,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5250,7 +5251,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5265,7 +5266,7 @@
         <v>0.27899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5280,7 +5281,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5295,7 +5296,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5310,7 +5311,7 @@
         <v>0.23500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5325,7 +5326,7 @@
         <v>0.17500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5340,7 +5341,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5355,7 +5356,7 @@
         <v>0.21400000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5370,85 +5371,85 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5470,14 +5471,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5508,7 +5509,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5525,7 +5526,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5542,7 +5543,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5559,7 +5560,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5576,7 +5577,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5593,7 +5594,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5610,7 +5611,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5627,7 +5628,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5644,7 +5645,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5661,7 +5662,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -5669,7 +5670,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -5677,7 +5678,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -5685,7 +5686,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -5693,7 +5694,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -5701,7 +5702,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -5709,7 +5710,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -5717,7 +5718,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -5725,7 +5726,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -5733,7 +5734,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -5741,7 +5742,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -5749,7 +5750,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -5757,7 +5758,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -5765,7 +5766,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5789,82 +5790,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5883,12 +5884,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5905,7 +5906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5914,7 +5915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5923,7 +5924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5932,7 +5933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5941,7 +5942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5950,7 +5951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5959,7 +5960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5968,7 +5969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5977,7 +5978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5986,85 +5987,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6084,19 +6085,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="7"/>
+    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6172,13 +6173,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -6190,160 +6191,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6362,14 +6363,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6398,7 +6399,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6413,7 +6414,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6428,7 +6429,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6443,7 +6444,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6458,7 +6459,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6473,7 +6474,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6488,7 +6489,7 @@
         <v>50.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6503,7 +6504,7 @@
         <v>36.69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6518,7 +6519,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -6549,15 +6550,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6581,7 +6582,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6611,7 +6612,7 @@
         <v>8.5310000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6641,7 +6642,7 @@
         <v>4.2560000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6671,7 +6672,7 @@
         <v>23.930499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6701,7 +6702,7 @@
         <v>18.145</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6731,7 +6732,7 @@
         <v>24.519499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6761,7 +6762,7 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6791,7 +6792,7 @@
         <v>47.908499999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6821,7 +6822,7 @@
         <v>34.855499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6851,7 +6852,7 @@
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -6881,10 +6882,10 @@
         <v>14.1455</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6892,40 +6893,40 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
   </sheetData>
@@ -6942,13 +6943,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -6988,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -7032,6 +7033,225 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A93E100-F2EF-4A65-A77F-7D1B321EA2D7}">
+  <dimension ref="A1:BA25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7039,12 +7259,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -7052,7 +7272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -7060,7 +7280,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -7073,7 +7293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7081,9 +7301,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -7091,7 +7311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7099,7 +7319,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -7107,7 +7327,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -7120,7 +7340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -7128,162 +7348,162 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7294,7 +7514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7302,155 +7522,155 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7462,7 +7682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7470,155 +7690,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7629,7 +7849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -7637,14 +7857,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -7658,7 +7878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -7672,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -7683,23 +7903,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7731,7 +7951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7764,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7797,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7830,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7863,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7896,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7929,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -7962,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -7995,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -8028,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -8061,85 +8281,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -8158,20 +8378,20 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8221,7 +8441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8271,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8321,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -8371,7 +8591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -8421,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8453,23 +8673,23 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="3"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -8522,7 +8742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -8575,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -8628,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -8681,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -8734,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -8800,9 +9020,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -8813,7 +9033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8824,7 +9044,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +9055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8846,7 +9066,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -8857,7 +9077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -8881,9 +9101,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -8940,20 +9160,20 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -8985,7 +9205,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -9017,7 +9237,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
@@ -9049,7 +9269,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -9081,7 +9301,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -9113,7 +9333,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -9145,7 +9365,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -9177,7 +9397,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -9209,7 +9429,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -9241,7 +9461,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
@@ -9273,7 +9493,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
@@ -9319,155 +9539,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -9486,14 +9706,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>

--- a/input_data/demo_model.xlsx
+++ b/input_data/demo_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730EE93-7D77-4EB4-B0E1-B3E8A24544AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5704FBDB-24BF-4F42-A79A-545C26012C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -29,17 +29,18 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId14"/>
     <sheet name="price" sheetId="4" r:id="rId15"/>
     <sheet name="markets" sheetId="5" r:id="rId16"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="reserve_activation_price" sheetId="28" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
-    <sheet name="constraints" sheetId="14" r:id="rId26"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="bid_slots" sheetId="29" r:id="rId17"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId18"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId19"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
+    <sheet name="constraints" sheetId="14" r:id="rId27"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
   <si>
     <t>node</t>
   </si>
@@ -6188,6 +6189,89 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC41313E-0921-4847-B147-12B3359B7405}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6355,12 +6439,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,399 +6623,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <f>1.05*market_prices!B2</f>
-        <v>16.926000000000002</v>
-      </c>
-      <c r="C2">
-        <f>1.05*market_prices!C2</f>
-        <v>16.506</v>
-      </c>
-      <c r="D2">
-        <f>1.05*market_prices!D2</f>
-        <v>9.4290000000000003</v>
-      </c>
-      <c r="E2">
-        <f>0.95*market_prices!B2</f>
-        <v>15.314</v>
-      </c>
-      <c r="F2">
-        <f>0.95*market_prices!C2</f>
-        <v>14.933999999999999</v>
-      </c>
-      <c r="G2">
-        <f>0.95*market_prices!D2</f>
-        <v>8.5310000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <f>1.05*market_prices!B3</f>
-        <v>24.864000000000001</v>
-      </c>
-      <c r="C3">
-        <f>1.05*market_prices!C3</f>
-        <v>7.4655000000000005</v>
-      </c>
-      <c r="D3">
-        <f>1.05*market_prices!D3</f>
-        <v>4.7040000000000006</v>
-      </c>
-      <c r="E3">
-        <f>0.95*market_prices!B3</f>
-        <v>22.495999999999999</v>
-      </c>
-      <c r="F3">
-        <f>0.95*market_prices!C3</f>
-        <v>6.7545000000000002</v>
-      </c>
-      <c r="G3">
-        <f>0.95*market_prices!D3</f>
-        <v>4.2560000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <f>1.05*market_prices!B4</f>
-        <v>67.756500000000003</v>
-      </c>
-      <c r="C4">
-        <f>1.05*market_prices!C4</f>
-        <v>38.335499999999996</v>
-      </c>
-      <c r="D4">
-        <f>1.05*market_prices!D4</f>
-        <v>26.449500000000004</v>
-      </c>
-      <c r="E4">
-        <f>0.95*market_prices!B4</f>
-        <v>61.3035</v>
-      </c>
-      <c r="F4">
-        <f>0.95*market_prices!C4</f>
-        <v>34.6845</v>
-      </c>
-      <c r="G4">
-        <f>0.95*market_prices!D4</f>
-        <v>23.930499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <f>1.05*market_prices!B5</f>
-        <v>46.053000000000004</v>
-      </c>
-      <c r="C5">
-        <f>1.05*market_prices!C5</f>
-        <v>29.673000000000002</v>
-      </c>
-      <c r="D5">
-        <f>1.05*market_prices!D5</f>
-        <v>20.055000000000003</v>
-      </c>
-      <c r="E5">
-        <f>0.95*market_prices!B5</f>
-        <v>41.666999999999994</v>
-      </c>
-      <c r="F5">
-        <f>0.95*market_prices!C5</f>
-        <v>26.847000000000001</v>
-      </c>
-      <c r="G5">
-        <f>0.95*market_prices!D5</f>
-        <v>18.145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <f>1.05*market_prices!B6</f>
-        <v>68.197500000000005</v>
-      </c>
-      <c r="C6">
-        <f>1.05*market_prices!C6</f>
-        <v>49.444500000000005</v>
-      </c>
-      <c r="D6">
-        <f>1.05*market_prices!D6</f>
-        <v>27.1005</v>
-      </c>
-      <c r="E6">
-        <f>0.95*market_prices!B6</f>
-        <v>61.702500000000001</v>
-      </c>
-      <c r="F6">
-        <f>0.95*market_prices!C6</f>
-        <v>44.735500000000002</v>
-      </c>
-      <c r="G6">
-        <f>0.95*market_prices!D6</f>
-        <v>24.519499999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <f>1.05*market_prices!B7</f>
-        <v>89.418000000000006</v>
-      </c>
-      <c r="C7">
-        <f>1.05*market_prices!C7</f>
-        <v>35.153999999999996</v>
-      </c>
-      <c r="D7">
-        <f>1.05*market_prices!D7</f>
-        <v>24.853500000000004</v>
-      </c>
-      <c r="E7">
-        <f>0.95*market_prices!B7</f>
-        <v>80.901999999999987</v>
-      </c>
-      <c r="F7">
-        <f>0.95*market_prices!C7</f>
-        <v>31.805999999999994</v>
-      </c>
-      <c r="G7">
-        <f>0.95*market_prices!D7</f>
-        <v>22.486499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999537038</v>
-      </c>
-      <c r="B8">
-        <f>1.05*market_prices!B8</f>
-        <v>148.24950000000001</v>
-      </c>
-      <c r="C8">
-        <f>1.05*market_prices!C8</f>
-        <v>71.841000000000008</v>
-      </c>
-      <c r="D8">
-        <f>1.05*market_prices!D8</f>
-        <v>52.951500000000003</v>
-      </c>
-      <c r="E8">
-        <f>0.95*market_prices!B8</f>
-        <v>134.13049999999998</v>
-      </c>
-      <c r="F8">
-        <f>0.95*market_prices!C8</f>
-        <v>64.998999999999995</v>
-      </c>
-      <c r="G8">
-        <f>0.95*market_prices!D8</f>
-        <v>47.908499999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666087964</v>
-      </c>
-      <c r="B9">
-        <f>1.05*market_prices!B9</f>
-        <v>75.852000000000004</v>
-      </c>
-      <c r="C9">
-        <f>1.05*market_prices!C9</f>
-        <v>67.945499999999996</v>
-      </c>
-      <c r="D9">
-        <f>1.05*market_prices!D9</f>
-        <v>38.524499999999996</v>
-      </c>
-      <c r="E9">
-        <f>0.95*market_prices!B9</f>
-        <v>68.627999999999986</v>
-      </c>
-      <c r="F9">
-        <f>0.95*market_prices!C9</f>
-        <v>61.474499999999992</v>
-      </c>
-      <c r="G9">
-        <f>0.95*market_prices!D9</f>
-        <v>34.855499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332638889</v>
-      </c>
-      <c r="B10">
-        <f>1.05*market_prices!B10</f>
-        <v>33.516000000000005</v>
-      </c>
-      <c r="C10">
-        <f>1.05*market_prices!C10</f>
-        <v>10.059000000000001</v>
-      </c>
-      <c r="D10">
-        <f>1.05*market_prices!D10</f>
-        <v>6.6780000000000008</v>
-      </c>
-      <c r="E10">
-        <f>0.95*market_prices!B10</f>
-        <v>30.324000000000002</v>
-      </c>
-      <c r="F10">
-        <f>0.95*market_prices!C10</f>
-        <v>9.1009999999999991</v>
-      </c>
-      <c r="G10">
-        <f>0.95*market_prices!D10</f>
-        <v>6.0419999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999189815</v>
-      </c>
-      <c r="B11">
-        <f>1.05*market_prices!B11</f>
-        <v>11.9175</v>
-      </c>
-      <c r="C11">
-        <f>1.05*market_prices!C11</f>
-        <v>24.853500000000004</v>
-      </c>
-      <c r="D11">
-        <f>1.05*market_prices!D11</f>
-        <v>15.634500000000001</v>
-      </c>
-      <c r="E11">
-        <f>0.95*market_prices!B11</f>
-        <v>10.782499999999999</v>
-      </c>
-      <c r="F11">
-        <f>0.95*market_prices!C11</f>
-        <v>22.486499999999999</v>
-      </c>
-      <c r="G11">
-        <f>0.95*market_prices!D11</f>
-        <v>14.1455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7033,10 +6724,403 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <f>1.05*market_prices!B2</f>
+        <v>16.926000000000002</v>
+      </c>
+      <c r="C2">
+        <f>1.05*market_prices!C2</f>
+        <v>16.506</v>
+      </c>
+      <c r="D2">
+        <f>1.05*market_prices!D2</f>
+        <v>9.4290000000000003</v>
+      </c>
+      <c r="E2">
+        <f>0.95*market_prices!B2</f>
+        <v>15.314</v>
+      </c>
+      <c r="F2">
+        <f>0.95*market_prices!C2</f>
+        <v>14.933999999999999</v>
+      </c>
+      <c r="G2">
+        <f>0.95*market_prices!D2</f>
+        <v>8.5310000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <f>1.05*market_prices!B3</f>
+        <v>24.864000000000001</v>
+      </c>
+      <c r="C3">
+        <f>1.05*market_prices!C3</f>
+        <v>7.4655000000000005</v>
+      </c>
+      <c r="D3">
+        <f>1.05*market_prices!D3</f>
+        <v>4.7040000000000006</v>
+      </c>
+      <c r="E3">
+        <f>0.95*market_prices!B3</f>
+        <v>22.495999999999999</v>
+      </c>
+      <c r="F3">
+        <f>0.95*market_prices!C3</f>
+        <v>6.7545000000000002</v>
+      </c>
+      <c r="G3">
+        <f>0.95*market_prices!D3</f>
+        <v>4.2560000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <f>1.05*market_prices!B4</f>
+        <v>67.756500000000003</v>
+      </c>
+      <c r="C4">
+        <f>1.05*market_prices!C4</f>
+        <v>38.335499999999996</v>
+      </c>
+      <c r="D4">
+        <f>1.05*market_prices!D4</f>
+        <v>26.449500000000004</v>
+      </c>
+      <c r="E4">
+        <f>0.95*market_prices!B4</f>
+        <v>61.3035</v>
+      </c>
+      <c r="F4">
+        <f>0.95*market_prices!C4</f>
+        <v>34.6845</v>
+      </c>
+      <c r="G4">
+        <f>0.95*market_prices!D4</f>
+        <v>23.930499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <f>1.05*market_prices!B5</f>
+        <v>46.053000000000004</v>
+      </c>
+      <c r="C5">
+        <f>1.05*market_prices!C5</f>
+        <v>29.673000000000002</v>
+      </c>
+      <c r="D5">
+        <f>1.05*market_prices!D5</f>
+        <v>20.055000000000003</v>
+      </c>
+      <c r="E5">
+        <f>0.95*market_prices!B5</f>
+        <v>41.666999999999994</v>
+      </c>
+      <c r="F5">
+        <f>0.95*market_prices!C5</f>
+        <v>26.847000000000001</v>
+      </c>
+      <c r="G5">
+        <f>0.95*market_prices!D5</f>
+        <v>18.145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <f>1.05*market_prices!B6</f>
+        <v>68.197500000000005</v>
+      </c>
+      <c r="C6">
+        <f>1.05*market_prices!C6</f>
+        <v>49.444500000000005</v>
+      </c>
+      <c r="D6">
+        <f>1.05*market_prices!D6</f>
+        <v>27.1005</v>
+      </c>
+      <c r="E6">
+        <f>0.95*market_prices!B6</f>
+        <v>61.702500000000001</v>
+      </c>
+      <c r="F6">
+        <f>0.95*market_prices!C6</f>
+        <v>44.735500000000002</v>
+      </c>
+      <c r="G6">
+        <f>0.95*market_prices!D6</f>
+        <v>24.519499999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <f>1.05*market_prices!B7</f>
+        <v>89.418000000000006</v>
+      </c>
+      <c r="C7">
+        <f>1.05*market_prices!C7</f>
+        <v>35.153999999999996</v>
+      </c>
+      <c r="D7">
+        <f>1.05*market_prices!D7</f>
+        <v>24.853500000000004</v>
+      </c>
+      <c r="E7">
+        <f>0.95*market_prices!B7</f>
+        <v>80.901999999999987</v>
+      </c>
+      <c r="F7">
+        <f>0.95*market_prices!C7</f>
+        <v>31.805999999999994</v>
+      </c>
+      <c r="G7">
+        <f>0.95*market_prices!D7</f>
+        <v>22.486499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+      <c r="B8">
+        <f>1.05*market_prices!B8</f>
+        <v>148.24950000000001</v>
+      </c>
+      <c r="C8">
+        <f>1.05*market_prices!C8</f>
+        <v>71.841000000000008</v>
+      </c>
+      <c r="D8">
+        <f>1.05*market_prices!D8</f>
+        <v>52.951500000000003</v>
+      </c>
+      <c r="E8">
+        <f>0.95*market_prices!B8</f>
+        <v>134.13049999999998</v>
+      </c>
+      <c r="F8">
+        <f>0.95*market_prices!C8</f>
+        <v>64.998999999999995</v>
+      </c>
+      <c r="G8">
+        <f>0.95*market_prices!D8</f>
+        <v>47.908499999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+      <c r="B9">
+        <f>1.05*market_prices!B9</f>
+        <v>75.852000000000004</v>
+      </c>
+      <c r="C9">
+        <f>1.05*market_prices!C9</f>
+        <v>67.945499999999996</v>
+      </c>
+      <c r="D9">
+        <f>1.05*market_prices!D9</f>
+        <v>38.524499999999996</v>
+      </c>
+      <c r="E9">
+        <f>0.95*market_prices!B9</f>
+        <v>68.627999999999986</v>
+      </c>
+      <c r="F9">
+        <f>0.95*market_prices!C9</f>
+        <v>61.474499999999992</v>
+      </c>
+      <c r="G9">
+        <f>0.95*market_prices!D9</f>
+        <v>34.855499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+      <c r="B10">
+        <f>1.05*market_prices!B10</f>
+        <v>33.516000000000005</v>
+      </c>
+      <c r="C10">
+        <f>1.05*market_prices!C10</f>
+        <v>10.059000000000001</v>
+      </c>
+      <c r="D10">
+        <f>1.05*market_prices!D10</f>
+        <v>6.6780000000000008</v>
+      </c>
+      <c r="E10">
+        <f>0.95*market_prices!B10</f>
+        <v>30.324000000000002</v>
+      </c>
+      <c r="F10">
+        <f>0.95*market_prices!C10</f>
+        <v>9.1009999999999991</v>
+      </c>
+      <c r="G10">
+        <f>0.95*market_prices!D10</f>
+        <v>6.0419999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+      <c r="B11">
+        <f>1.05*market_prices!B11</f>
+        <v>11.9175</v>
+      </c>
+      <c r="C11">
+        <f>1.05*market_prices!C11</f>
+        <v>24.853500000000004</v>
+      </c>
+      <c r="D11">
+        <f>1.05*market_prices!D11</f>
+        <v>15.634500000000001</v>
+      </c>
+      <c r="E11">
+        <f>0.95*market_prices!B11</f>
+        <v>10.782499999999999</v>
+      </c>
+      <c r="F11">
+        <f>0.95*market_prices!C11</f>
+        <v>22.486499999999999</v>
+      </c>
+      <c r="G11">
+        <f>0.95*market_prices!D11</f>
+        <v>14.1455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A93E100-F2EF-4A65-A77F-7D1B321EA2D7}">
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7251,7 +7335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7293,7 +7377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7340,7 +7424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -7514,7 +7598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7682,7 +7766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7849,7 +7933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -7903,7 +7987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>

--- a/input_data/demo_model.xlsx
+++ b/input_data/demo_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5704FBDB-24BF-4F42-A79A-545C26012C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D4159-0985-470F-8A6E-FE6BD72A97B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="4" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
   <si>
     <t>node</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>delay_t</t>
@@ -5139,26 +5136,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CA5E7-5C31-4336-93EE-0293D708EE58}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
       </c>
     </row>
   </sheetData>
@@ -6192,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC41313E-0921-4847-B147-12B3359B7405}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6650,7 +6703,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6658,7 +6711,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6666,7 +6719,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6674,7 +6727,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6682,7 +6735,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6690,7 +6743,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6698,7 +6751,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6706,7 +6759,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6714,7 +6767,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -8498,7 +8551,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -8513,13 +8566,13 @@
         <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>53</v>
@@ -8820,7 +8873,7 @@
         <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>45</v>
@@ -9283,10 +9336,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9805,13 +9858,13 @@
         <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/demo_model.xlsx
+++ b/input_data/demo_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D4159-0985-470F-8A6E-FE6BD72A97B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896003F0-FF4F-4E26-A1DB-4BA8500D72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="4" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
   <si>
     <t>node</t>
   </si>
@@ -134,9 +134,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>conversion_coeff</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -392,9 +386,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>use_market_bids</t>
   </si>
   <si>
@@ -432,6 +423,18 @@
   </si>
   <si>
     <t>ramp_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -4961,7 +4964,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5138,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CA5E7-5C31-4336-93EE-0293D708EE58}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5149,7 +5152,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5225,17 +5228,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5261,16 +5264,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5534,16 +5537,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5852,7 +5855,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,10 +5948,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6139,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6153,40 +6156,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6194,22 +6197,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -6256,7 +6259,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -6340,7 +6343,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -6509,16 +6512,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6695,15 +6698,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6711,7 +6714,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6719,7 +6722,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6727,7 +6730,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6735,7 +6738,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6743,7 +6746,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6751,7 +6754,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6759,7 +6762,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6767,7 +6770,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6794,25 +6797,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -7184,7 +7187,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -7403,15 +7406,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -7419,7 +7422,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7442,15 +7445,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -7458,7 +7461,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -7466,7 +7469,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -7492,7 +7495,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7666,7 +7669,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7834,7 +7837,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -8003,24 +8006,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8058,34 +8061,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8512,7 +8515,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8539,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -8551,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -8560,22 +8563,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -8680,7 +8683,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -8730,7 +8733,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -8834,13 +8837,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -8855,33 +8858,33 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -8934,7 +8937,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -8987,7 +8990,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -9040,7 +9043,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -9093,7 +9096,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -9153,21 +9156,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9178,7 +9181,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9186,10 +9189,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9197,10 +9200,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9208,10 +9211,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9219,10 +9222,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -9294,7 +9297,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9321,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
@@ -9336,15 +9339,15 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -9376,7 +9379,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -9408,13 +9411,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -9440,7 +9443,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>23</v>
@@ -9472,7 +9475,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -9504,13 +9507,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -9536,7 +9539,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -9568,13 +9571,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -9600,7 +9603,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -9632,13 +9635,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -9683,7 +9686,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -9852,19 +9855,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/demo_model.xlsx
+++ b/input_data/demo_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896003F0-FF4F-4E26-A1DB-4BA8500D72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29F9F6-B68D-44BC-94AB-B3530B6CDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
   <si>
     <t>node</t>
   </si>
@@ -401,9 +401,6 @@
     <t>use_ramp_dummy_variables</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -435,6 +432,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -6159,7 +6162,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -6684,10 +6687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB98B755-8BE1-4837-9877-4DDB59C80C3F}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,7 +6749,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6754,7 +6757,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6762,7 +6765,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6770,7 +6773,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -8569,13 +8580,13 @@
         <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>107</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>51</v>
@@ -8876,7 +8887,7 @@
         <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>43</v>
@@ -9156,7 +9167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9164,7 +9175,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -9330,7 +9341,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
@@ -9339,10 +9350,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
